--- a/biology/Médecine/Jean-Joseph_Sue_(1760-1830)/Jean-Joseph_Sue_(1760-1830).xlsx
+++ b/biology/Médecine/Jean-Joseph_Sue_(1760-1830)/Jean-Joseph_Sue_(1760-1830).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Joseph Sue fils, né le 28 janvier 1760 et mort le 21 avril 1830, est un médecin et chirurgien français de l'époque napoléonienne.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Jean-Joseph Sue père (1710-1792), professeur au Collège royal de chirurgie et à l'Académie royale de peinture et de sculpture[1]. Il s'oppose à l'usage de la guillotine durant la Révolution puis devient médecin en chef de l'hôpital de la Garde en 1800. Il conserve ce poste jusqu'à ce que les circonstances mettent en évidence son inadaptation à la vie militaire (1812).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Jean-Joseph Sue père (1710-1792), professeur au Collège royal de chirurgie et à l'Académie royale de peinture et de sculpture. Il s'oppose à l'usage de la guillotine durant la Révolution puis devient médecin en chef de l'hôpital de la Garde en 1800. Il conserve ce poste jusqu'à ce que les circonstances mettent en évidence son inadaptation à la vie militaire (1812).
 Jean-Joseph Sue est également le médecin de Joséphine de Beauharnais et de Joseph Fouché. Après la Restauration, il soignera Louis XVIII.
 Son fils Marie-Joseph, se fera connaître sous le nom d'Eugène Sue.
-Il possède une maison à Suresnes[2], carrefour de la Croix-du-Coin[3], plus tard renommé place Eugène-Sue[4]. En 1799, Joséphine vient d'ailleurs dans le petit village viticole à l'ouest de la capitale soigner ses rhumatismes par un bain de raisin en fermentation, une thérapie préconisée par le docteur[5],[6].
+Il possède une maison à Suresnes, carrefour de la Croix-du-Coin, plus tard renommé place Eugène-Sue. En 1799, Joséphine vient d'ailleurs dans le petit village viticole à l'ouest de la capitale soigner ses rhumatismes par un bain de raisin en fermentation, une thérapie préconisée par le docteur,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Décoration, titre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1808, Napoléon en fait un chevalier d'Empire.</t>
         </is>
